--- a/vedsite/generated/36a70659-5556-4ee6-ad66-f87e39e3d8be/211/table.xlsx
+++ b/vedsite/generated/36a70659-5556-4ee6-ad66-f87e39e3d8be/211/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD86333D-B3DC-4404-849E-6DACBE1173D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4035529D-4E8D-4202-853C-5FA88CC039F3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{EA7F0DAC-2E36-42A5-A800-D49062CC543D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Student</t>
   </si>
@@ -87,6 +87,9 @@
     <t>lolkek@edu.hse.ru</t>
   </si>
   <si>
+    <t>Памагите Пажождаааа</t>
+  </si>
+  <si>
     <t>pomogite@mail.ru</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
   </si>
   <si>
     <t>nope@nope.nope</t>
-  </si>
-  <si>
-    <t>Памагите Пажождаааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааа</t>
   </si>
 </sst>
 </file>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A36B4A-B7AD-4C5B-9C24-4F7C0F99301A}">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AE7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +533,7 @@
     <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="1" t="s">
@@ -553,30 +553,8 @@
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3" t="s">
@@ -596,30 +574,8 @@
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -665,56 +621,8 @@
       <c r="O3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -762,59 +670,8 @@
         <f>SUM(M4:N4)</f>
         <v>1</v>
       </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4">
-        <v>1</v>
-      </c>
-      <c r="S4" s="4">
-        <v>1</v>
-      </c>
-      <c r="T4" s="4">
-        <v>1</v>
-      </c>
-      <c r="U4" s="4">
-        <v>1</v>
-      </c>
-      <c r="V4" s="4">
-        <v>1</v>
-      </c>
-      <c r="W4" s="4">
-        <v>1</v>
-      </c>
-      <c r="X4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="4">
-        <f>SUM(P4:X4)</f>
-        <v>8</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="4">
-        <f>SUM(Z4:AA4)</f>
-        <v>1</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="4">
-        <f>SUM(AC4:AD4)</f>
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -862,64 +719,13 @@
         <f t="shared" ref="O5:O7" si="1">SUM(M5:N5)</f>
         <v>2</v>
       </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4">
-        <f t="shared" ref="Y5:Y6" si="2">SUM(P5:X5)</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="4">
-        <f t="shared" ref="AB5:AB7" si="3">SUM(Z5:AA5)</f>
-        <v>2</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="4">
-        <f t="shared" ref="AE5:AE7" si="4">SUM(AC5:AD5)</f>
-        <v>2</v>
-      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -962,64 +768,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <v>1</v>
-      </c>
-      <c r="W6" s="4">
-        <v>1</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -1061,69 +816,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0</v>
-      </c>
-      <c r="V7" s="4">
-        <v>0</v>
-      </c>
-      <c r="W7" s="4">
-        <v>0</v>
-      </c>
-      <c r="X7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="P2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AC2:AE2"/>
+  <mergeCells count="4">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P1:Y1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{DF19BC3B-931D-4AC4-B135-53AA1B0860AB}"/>

--- a/vedsite/generated/36a70659-5556-4ee6-ad66-f87e39e3d8be/211/table.xlsx
+++ b/vedsite/generated/36a70659-5556-4ee6-ad66-f87e39e3d8be/211/table.xlsx
@@ -8,24 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679DF1A8-23D6-468A-9034-B10FDB2F4005}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9A6B72-F855-400E-8192-673B745C5BA6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{EA7F0DAC-2E36-42A5-A800-D49062CC543D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+  <si>
+    <t>Yandex</t>
+  </si>
+  <si>
+    <t>Stepik</t>
+  </si>
+  <si>
+    <t>Contest 1234</t>
+  </si>
+  <si>
+    <t>Contest 2345</t>
+  </si>
   <si>
     <t>Student</t>
   </si>
@@ -63,22 +70,10 @@
     <t>Sum</t>
   </si>
   <si>
+    <t>Вася Пупкин</t>
+  </si>
+  <si>
     <t>xoxo@gmail.com</t>
-  </si>
-  <si>
-    <t>Yandex</t>
-  </si>
-  <si>
-    <t>Contest 1234</t>
-  </si>
-  <si>
-    <t>Stepik</t>
-  </si>
-  <si>
-    <t>Contest 2345</t>
-  </si>
-  <si>
-    <t>Вася Пупкин</t>
   </si>
   <si>
     <t>Лол Кек</t>
@@ -103,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +132,30 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +172,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,28 +201,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -519,316 +596,916 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A36B4A-B7AD-4C5B-9C24-4F7C0F99301A}">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:28" ht="21">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="4"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.6">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="10"/>
+    </row>
+    <row r="3" spans="1:28" ht="15.6">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2" t="s">
+      <c r="K3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
+      <c r="M3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="Y3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.6">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
         <f>SUM(C4:K4)</f>
         <v>8</v>
       </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <f>SUM(M4:N4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" ref="O4:O19" si="0">SUM(M4:N4)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7">
+        <v>1</v>
+      </c>
+      <c r="S4" s="7">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4" s="7">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="7">
+        <f>SUM(P4:X4)</f>
+        <v>8</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="7">
+        <f t="shared" ref="AB4:AB19" si="1">SUM(Z4:AA4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.6">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" ref="L5:L6" si="0">SUM(C5:K5)</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" ref="O5:O7" si="1">SUM(M5:N5)</f>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <f>SUM(C5:K5)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>1</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <f>SUM(P5:X5)</f>
+        <v>1</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.6">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f>SUM(C6:K6)</f>
+        <v>3</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>1</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>1</v>
+      </c>
+      <c r="W6" s="7">
+        <v>1</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <f>SUM(P6:X6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="Z6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:28" ht="15.6">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:28" ht="15.6">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.6">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.6">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.6">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.6">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.6">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.6">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.6">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.6">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.6">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.6">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.6">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:L1"/>
+  <mergeCells count="8">
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="P2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="C1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{DF19BC3B-931D-4AC4-B135-53AA1B0860AB}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{D4114233-A9D9-44C6-AB00-679D02381688}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{66ECE124-739F-4FEE-8695-1645FEF275ED}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{25617013-3639-42E1-B19A-FD04D7EC1646}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
